--- a/MainTop/29.07.2024/таня_месяц с 29.06.2024 по 29.07.2024/2 недели с 16.07.2024 по 30.07.2024/добавить_все.xlsx
+++ b/MainTop/29.07.2024/таня_месяц с 29.06.2024 по 29.07.2024/2 недели с 16.07.2024 по 30.07.2024/добавить_все.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Розовые Spring Blossoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце Love is Wild</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,6 +121,13 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,13 +179,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -198,7 +212,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,7 +356,7 @@
         <v>631</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +425,7 @@
         <v>631</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,6 +519,17 @@
       <c r="G13" s="0" t="n">
         <v>4</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
     </row>
     <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
